--- a/sample_table/sampleExcel.xlsx
+++ b/sample_table/sampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiromimatsumoto/Library/CloudStorage/GoogleDrive-ocean.vntp@gmail.com/マイドライブ/Python_呼吸器/KaplanMeier_plotter/sample_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45310768-F618-3947-8A26-0AD689187659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E4ACDA-0240-0E45-95FC-4B8DC1A9E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{6CC37321-0633-A442-BE36-CDA3D4FFB810}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{6CC37321-0633-A442-BE36-CDA3D4FFB810}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>14</v>
+        <v>211.63414962763522</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>368</v>
+        <v>53.959131337729573</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>276</v>
+        <v>156.27920254318778</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>357</v>
+        <v>301.05704737103321</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>403</v>
+        <v>201.14488181341054</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>26</v>
+        <v>195.12573808232077</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>170</v>
+        <v>151.06409029881632</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>397</v>
+        <v>138.97101902553214</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>217</v>
+        <v>143.89520006335272</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>393</v>
+        <v>98.215432556219866</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>253</v>
+        <v>207.94134838007091</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>189</v>
+        <v>-44.448547299406499</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>437</v>
+        <v>240.60959553090964</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>172</v>
+        <v>127.49685592100984</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>500</v>
+        <v>140.14057826721313</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>335</v>
+        <v>152.11254220408202</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>233</v>
+        <v>85.639616244671473</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>462</v>
+        <v>166.51314840037722</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>344</v>
+        <v>95.572609352429211</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>286</v>
+        <v>214.10765154533397</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>397</v>
+        <v>139.22607214633868</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>317</v>
+        <v>342.51460540922812</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>83</v>
+        <v>163.47921551725923</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>108</v>
+        <v>115.66161419722843</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>437</v>
+        <v>206.38291557038707</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>166</v>
+        <v>32.883852986892549</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>352</v>
+        <v>64.985959062915825</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>184</v>
+        <v>135.55582749199343</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>421</v>
+        <v>136.5954882498267</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>239</v>
+        <v>164.23973924787089</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>155</v>
+        <v>305.14912171756959</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>428</v>
+        <v>214.24974729513187</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>40</v>
+        <v>228.3901874292699</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>163</v>
+        <v>241.08537820557308</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>237</v>
+        <v>294.21737310230731</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>345</v>
+        <v>55.245614229579672</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>52</v>
+        <v>194.73902849806481</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>128</v>
+        <v>256.8029100875284</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>125</v>
+        <v>267.11213097460137</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>183</v>
+        <v>192.11951589891936</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>63</v>
+        <v>182.15566504573744</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>183</v>
+        <v>207.88396682079474</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>363</v>
+        <v>132.43803605199216</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>293</v>
+        <v>197.85686860358658</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>173</v>
+        <v>124.28382607925906</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>64</v>
+        <v>189.9775459741758</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>373</v>
+        <v>162.77138730978828</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>80</v>
+        <v>102.08537977617712</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>220</v>
+        <v>180.85422931861737</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>77</v>
+        <v>205.78064845121429</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>156</v>
+        <v>270.09903535764079</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>447</v>
+        <v>186.67814451708756</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>276</v>
+        <v>292.33120442410984</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>79</v>
+        <v>295.98681626570385</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>253</v>
+        <v>315.91875247980039</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>368</v>
+        <v>140.53723155764223</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>99</v>
+        <v>204.68438088783424</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>36</v>
+        <v>157.86957980248837</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>62</v>
+        <v>280.72974272880555</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>303</v>
+        <v>230.68620171720266</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>20</v>
+        <v>168.78729487493493</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>468</v>
+        <v>174.03768871090239</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>268</v>
+        <v>148.2772855809626</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>161</v>
+        <v>292.59961872316876</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>103</v>
+        <v>85.667809350676293</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>483</v>
+        <v>268.48413298696556</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>284</v>
+        <v>240.94282655908762</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>28</v>
+        <v>225.34273982727817</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>479</v>
+        <v>240.74259137682563</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>439</v>
+        <v>149.8075397781441</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>65</v>
+        <v>333.38609358211397</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>42</v>
+        <v>233.04754592665466</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>419</v>
+        <v>86.816400958248579</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>104</v>
+        <v>81.036114462101864</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>433</v>
+        <v>231.36331061025703</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>146</v>
+        <v>192.44571281377685</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>478</v>
+        <v>205.73659795646034</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>342</v>
+        <v>171.52839651405102</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>21</v>
+        <v>224.57060702411903</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>277</v>
+        <v>266.58224148864963</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>471</v>
+        <v>243.06766565492723</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>162</v>
+        <v>305.41089900077714</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>209</v>
+        <v>284.16885812252923</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>204</v>
+        <v>209.96538824079227</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>16</v>
+        <v>281.6185638805606</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>153</v>
+        <v>191.83336012974678</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>455</v>
+        <v>308.1722593288618</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>476</v>
+        <v>121.73430884725933</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>482</v>
+        <v>303.50037061940202</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>61</v>
+        <v>124.2946360827371</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>278</v>
+        <v>210.56233488777565</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>484</v>
+        <v>22.083061026541344</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>466</v>
+        <v>288.55715785820962</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>349</v>
+        <v>223.83804976790194</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>336</v>
+        <v>351.86602153133373</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>45</v>
+        <v>280.20056769985911</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>379</v>
+        <v>348.69996922778068</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>446</v>
+        <v>278.76843856717511</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>491</v>
+        <v>185.55599959538756</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>295</v>
+        <v>123.95063087724714</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>500</v>
+        <v>274.12316194374904</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>330</v>
+        <v>2.5761588211191508</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>159</v>
+        <v>175.91263882497736</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>447</v>
+        <v>245.30458940149782</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>367</v>
+        <v>237.70510697224097</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>81</v>
+        <v>121.08783169176647</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>148</v>
+        <v>194.55911010990275</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>37</v>
+        <v>135.57188054589781</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>350</v>
+        <v>191.72508704734747</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>472</v>
+        <v>172.18809235001766</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>78</v>
+        <v>127.64346711212822</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>465</v>
+        <v>140.1190087056284</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>196</v>
+        <v>77.042442990920563</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>372</v>
+        <v>198.84787537847291</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>430</v>
+        <v>227.99708523046451</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>65</v>
+        <v>138.36813739083132</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>372</v>
+        <v>213.77290744489528</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>278</v>
+        <v>185.45824450274134</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>403</v>
+        <v>321.07994126818903</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>427</v>
+        <v>195.4261651480916</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>468</v>
+        <v>115.08225702736239</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>485</v>
+        <v>5.3605981325807761</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>96</v>
+        <v>254.00530387270229</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>18</v>
+        <v>108.4687148230667</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>29</v>
+        <v>62.974147922539814</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>393</v>
+        <v>375.12501361415548</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>112</v>
+        <v>-76.430343916570621</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>305</v>
+        <v>127.0510194997058</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>383</v>
+        <v>183.92246137844552</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>351</v>
+        <v>113.53669556992044</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>194</v>
+        <v>163.96825791754895</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>210</v>
+        <v>96.807157400582653</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>427</v>
+        <v>-65.318913582057348</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>213</v>
+        <v>199.28743800858021</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>225</v>
+        <v>78.628664707740469</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>379</v>
+        <v>262.60521278326695</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>355</v>
+        <v>139.30653961345945</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>275</v>
+        <v>29.877542254487125</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>83</v>
+        <v>265.76734830131471</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>167</v>
+        <v>90.624031902955807</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>129</v>
+        <v>152.55804662283634</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>483</v>
+        <v>93.731262951904796</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>397</v>
+        <v>150.11017689112273</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>149</v>
+        <v>183.23027351763923</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>297</v>
+        <v>174.6848096625211</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>439</v>
+        <v>122.37550463954709</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>224</v>
+        <v>3.869459961245326</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>410</v>
+        <v>107.19300900659931</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>274</v>
+        <v>0.3439200942762568</v>
       </c>
       <c r="B150">
         <v>0</v>
